--- a/va_facility_data_2025-02-20/Rochester Clinton Crossings VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rochester%20Clinton%20Crossings%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rochester Clinton Crossings VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rochester%20Clinton%20Crossings%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2145e5cdb70148b3a9c37e1b6d7e237e"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R5e505237ca4f4ea2aee1a2fa47e7a6ed"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc5fdb7ef032c4f63b1c52aa269efa5c8"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R46635daf3d994a879a1d296a4bc2dd34"/>
   </x:sheets>
 </x:workbook>
 </file>
